--- a/AoC_2016/Day13.xlsx
+++ b/AoC_2016/Day13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AoC_2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F697A-7761-4EDA-BC76-53C7D78454BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD466BCB-7504-4910-9B74-27BFBB9B8339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="465" windowWidth="32715" windowHeight="17040" activeTab="2" xr2:uid="{7C3458E6-9B5E-4D72-A1F2-F3F8BF31B90F}"/>
+    <workbookView xWindow="3975" yWindow="885" windowWidth="26880" windowHeight="17040" activeTab="2" xr2:uid="{7C3458E6-9B5E-4D72-A1F2-F3F8BF31B90F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF8ED973"/>
@@ -308,26 +308,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -20133,7 +20113,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BR70">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24578,11 +24558,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:AH42">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
